--- a/Recycling/Met_rec_tech/metrec_tech_Min_full_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_full_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.464719215390088E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.670364338913973E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0007133072999610842</v>
+      </c>
+      <c r="E7">
         <v>48.54640024045443</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.924275669907224E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0007133072999610842</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>129.3709372181976</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>891.5556360218856</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>59.88110063178982</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>493192.3848316902</v>
+      </c>
+      <c r="E7">
         <v>3083391.321020406</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>112967.8718256767</v>
-      </c>
-      <c r="F7">
-        <v>493192.3848316902</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8216906.362471259</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>813.5829350166048</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>54.64408460409341</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>462510.421780003</v>
+      </c>
+      <c r="E7">
         <v>3080625.197142591</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103088.0508283362</v>
-      </c>
-      <c r="F7">
-        <v>462510.421780003</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8209534.939734204</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.674409063322436E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.482849354885689E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.007306763635518143</v>
+      </c>
+      <c r="E7">
         <v>94.05991161123909</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.457058170164891E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.007306763635518143</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>250.6595516770477</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.86075466478797E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.608007889729779E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.06434405102993968</v>
+      </c>
+      <c r="E7">
         <v>191.0111166950121</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0008693174293164988</v>
-      </c>
-      <c r="F7">
-        <v>0.06434405102993968</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>509.0240896035779</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.956576748189035E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.32907178257366E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.4065256979366426</v>
+      </c>
+      <c r="E7">
         <v>328.6247607473316</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.006280414863193165</v>
-      </c>
-      <c r="F7">
-        <v>0.4065256979366426</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>875.7496555956845</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.000332873149731781</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.23573378613248E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.432084472020261</v>
+      </c>
+      <c r="E7">
         <v>617.0481303208193</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.04217793011875038</v>
-      </c>
-      <c r="F7">
-        <v>2.432084472020261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1644.366925929535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001848890781984155</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.000124180264809031</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>12.22802739524469</v>
+      </c>
+      <c r="E7">
         <v>1095.824185364752</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2342705810383482</v>
-      </c>
-      <c r="F7">
-        <v>12.22802739524469</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2920.253637444133</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.007499623801424821</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0005037102670984203</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45.51305174600008</v>
+      </c>
+      <c r="E7">
         <v>1580.764047470572</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.950267718703936</v>
-      </c>
-      <c r="F7">
-        <v>45.51305174600008</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4212.566232082482</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.03237811813854204</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.002174667819019229</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>182.3440435599242</v>
+      </c>
+      <c r="E7">
         <v>2634.268155414087</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.102589846385817</v>
-      </c>
-      <c r="F7">
-        <v>182.3440435599242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7020.041413204128</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1292644451210683</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.00868201257853655</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>681.3998236924991</v>
+      </c>
+      <c r="E7">
         <v>4328.216115619747</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16.37893214742193</v>
-      </c>
-      <c r="F7">
-        <v>681.3998236924991</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11534.23060385891</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4827373657006623</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.03242292865000396</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2392.530889955808</v>
+      </c>
+      <c r="E7">
         <v>7017.951259498993</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61.1670328250817</v>
-      </c>
-      <c r="F7">
-        <v>2392.530889955808</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>18702.08557783925</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.498304176136355</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1006332073100704</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6953.527586327337</v>
+      </c>
+      <c r="E7">
         <v>9955.449118968345</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>189.8482016006156</v>
-      </c>
-      <c r="F7">
-        <v>6953.527586327337</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26530.20155088141</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.544095456011241</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3052029803725995</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>19293.53741336699</v>
+      </c>
+      <c r="E7">
         <v>14699.42820879514</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>575.7765105146133</v>
-      </c>
-      <c r="F7">
-        <v>19293.53741336699</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39172.39578061942</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.22591468665081</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8211503557238948</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44635.96017986467</v>
+      </c>
+      <c r="E7">
         <v>21352.66667387305</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1549.12997851244</v>
-      </c>
-      <c r="F7">
-        <v>44635.96017986467</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56902.56097309493</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>22.57568922226827</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.516290249908167</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>63832.54374897951</v>
+      </c>
+      <c r="E7">
         <v>25911.90683683491</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2860.536643363118</v>
-      </c>
-      <c r="F7">
-        <v>63832.54374897951</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69052.44582477771</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>32.59512244190173</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.189242856181233</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>71727.19822261222</v>
+      </c>
+      <c r="E7">
         <v>35302.67407370634</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4130.08618350387</v>
-      </c>
-      <c r="F7">
-        <v>71727.19822261222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>94077.8308711361</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>26.23311165273856</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.761940068902279</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>67641.5749084033</v>
+      </c>
+      <c r="E7">
         <v>45660.74195934248</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3323.963951367462</v>
-      </c>
-      <c r="F7">
-        <v>67641.5749084033</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>121680.9681479922</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.06709073791153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9448124626657863</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>69189.98512101002</v>
+      </c>
+      <c r="E7">
         <v>57643.51384912496</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1782.423035909725</v>
-      </c>
-      <c r="F7">
-        <v>69189.98512101002</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>153613.7669173067</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.74887939420882</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9906046190807437</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73409.89911810846</v>
+      </c>
+      <c r="E7">
         <v>71109.53260530985</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1868.811602618199</v>
-      </c>
-      <c r="F7">
-        <v>73409.89911810846</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>189499.2591156291</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>24.42321584243083</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.640378891145974</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>77952.57208316552</v>
+      </c>
+      <c r="E7">
         <v>85815.84817377872</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3094.634373205663</v>
-      </c>
-      <c r="F7">
-        <v>77952.57208316552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>228690.0089692907</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>34.55761732122847</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.321053310414571</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>80964.68329535099</v>
+      </c>
+      <c r="E7">
         <v>101447.1177049498</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4378.75139409639</v>
-      </c>
-      <c r="F7">
-        <v>80964.68329535099</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>270345.6616879592</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0008618642397770247</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.002296775536446228</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>48.98704430553676</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.290201992107406</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>85412.62152517974</v>
+      </c>
+      <c r="E7">
         <v>117701.1815772383</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6207.08559133687</v>
-      </c>
-      <c r="F7">
-        <v>85412.62152517974</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>313660.9943665316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>64.98379626357362</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.364619644891413</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91488.84338901893</v>
+      </c>
+      <c r="E7">
         <v>134409.0270714588</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8234.013526968576</v>
-      </c>
-      <c r="F7">
-        <v>91488.84338901893</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>358185.6062796293</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>74.40955242557949</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.997698087181617</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90215.7447850919</v>
+      </c>
+      <c r="E7">
         <v>151682.1410501807</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9428.339008125004</v>
-      </c>
-      <c r="F7">
-        <v>90215.7447850919</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>404216.59792959</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>94.82027291584563</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.368578779606469</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90173.58674242326</v>
+      </c>
+      <c r="E7">
         <v>170085.2529202237</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12014.55523855832</v>
-      </c>
-      <c r="F7">
-        <v>90173.58674242326</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>453258.9124692129</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>156.2333613863183</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.49337277139624</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91708.35969726567</v>
+      </c>
+      <c r="E7">
         <v>190818.8783204051</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19796.12895807098</v>
-      </c>
-      <c r="F7">
-        <v>91708.35969726567</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>508511.7950035862</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>244.4612692900417</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.41917708271065</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>92469.70133690299</v>
+      </c>
+      <c r="E7">
         <v>215881.4922346085</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30975.3740761746</v>
-      </c>
-      <c r="F7">
-        <v>92469.70133690299</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>575300.9665005164</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>343.8123456356379</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.09206608722953</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>97201.53225082514</v>
+      </c>
+      <c r="E7">
         <v>248171.8208055693</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43564.02160963806</v>
-      </c>
-      <c r="F7">
-        <v>97201.53225082514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>661351.2204764563</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>419.3478451389462</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.16538811479516</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>99974.13235370316</v>
+      </c>
+      <c r="E7">
         <v>291485.0893594818</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53135.02792871957</v>
-      </c>
-      <c r="F7">
-        <v>99974.13235370316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>776776.4243854723</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>379.0512201977604</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.45887586168277</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>97611.82719582033</v>
+      </c>
+      <c r="E7">
         <v>350362.4073945109</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48029.09423547833</v>
-      </c>
-      <c r="F7">
-        <v>97611.82719582033</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>933678.1468068648</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>349.8551873715289</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.49793196869426</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91556.96100359599</v>
+      </c>
+      <c r="E7">
         <v>429755.8349929364</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44329.7023401519</v>
-      </c>
-      <c r="F7">
-        <v>91556.96100359599</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1145253.095443618</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.02973488471387627</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.07924027084306055</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>336.829943802935</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.62309489810522</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90229.71698153777</v>
+      </c>
+      <c r="E7">
         <v>534500.5830395685</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42679.29042360494</v>
-      </c>
-      <c r="F7">
-        <v>90229.71698153777</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1424386.587450397</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>304.0020713743215</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.41821945006631</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>106347.0366058357</v>
+      </c>
+      <c r="E7">
         <v>668677.0157015058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38519.71278762862</v>
-      </c>
-      <c r="F7">
-        <v>106347.0366058357</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1781952.35463583</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>268.2911918711581</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.01970758745255</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>142805.047483843</v>
+      </c>
+      <c r="E7">
         <v>834946.0074951588</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33994.83302073483</v>
-      </c>
-      <c r="F7">
-        <v>142805.047483843</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2225041.341504619</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>257.0413128020865</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.26411240818096</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>211076.7803784756</v>
+      </c>
+      <c r="E7">
         <v>1033931.644812241</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32569.37526422298</v>
-      </c>
-      <c r="F7">
-        <v>211076.7803784756</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2755316.671192593</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>363.5615680636076</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.41851743566768</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>311943.3314816158</v>
+      </c>
+      <c r="E7">
         <v>1263713.801437767</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46066.42026851983</v>
-      </c>
-      <c r="F7">
-        <v>311943.3314816158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3367661.41377746</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>537.8939839311345</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.12750845783889</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>428570.5099191941</v>
+      </c>
+      <c r="E7">
         <v>1519481.143208724</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68155.85722015827</v>
-      </c>
-      <c r="F7">
-        <v>428570.5099191941</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4049253.881001059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>728.5312753061505</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.93161217023913</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>561208.943379366</v>
+      </c>
+      <c r="E7">
         <v>1793403.672855285</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92311.26404742031</v>
-      </c>
-      <c r="F7">
-        <v>561208.943379366</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4779227.971974431</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1033.010346103636</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>69.38186916154879</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>776210.2654256024</v>
+      </c>
+      <c r="E7">
         <v>2074787.720663061</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>130891.4168205303</v>
-      </c>
-      <c r="F7">
-        <v>776210.2654256024</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5529086.206629013</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1377.828154694169</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>92.54146690462906</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1016237.174697014</v>
+      </c>
+      <c r="E7">
         <v>2350577.797005818</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>174582.8393523596</v>
-      </c>
-      <c r="F7">
-        <v>1016237.174697014</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6264037.108760143</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1506.880132404479</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>101.2092091652061</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1102885.593485362</v>
+      </c>
+      <c r="E7">
         <v>2606248.740646186</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>190934.8500265095</v>
-      </c>
-      <c r="F7">
-        <v>1102885.593485362</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6945372.685329881</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.2308488526232031</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.6151873727338137</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1515.398927920114</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>101.7813718333818</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1103621.559226219</v>
+      </c>
+      <c r="E7">
         <v>2827070.854169664</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>192014.2556867253</v>
-      </c>
-      <c r="F7">
-        <v>1103621.559226219</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7533839.876378777</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1506.800967012078</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>101.2038920423735</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1090398.596917449</v>
+      </c>
+      <c r="E7">
         <v>2999636.962533399</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>190924.8190811143</v>
-      </c>
-      <c r="F7">
-        <v>1090398.596917449</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7993710.001878002</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1477.83339452689</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.2582926283155</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1059239.863394178</v>
+      </c>
+      <c r="E7">
         <v>3113442.678540063</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>187254.3751027561</v>
-      </c>
-      <c r="F7">
-        <v>1059239.863394178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8296989.999316434</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1447.238718994194</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>97.20340926450783</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1019033.942358829</v>
+      </c>
+      <c r="E7">
         <v>3162249.875118767</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>183377.7629829031</v>
-      </c>
-      <c r="F7">
-        <v>1019033.942358829</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8427055.930736784</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1452.152721679246</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>97.53345696697255</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>990526.1332102325</v>
+      </c>
+      <c r="E7">
         <v>3144971.844344711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>184000.4099642546</v>
-      </c>
-      <c r="F7">
-        <v>990526.1332102325</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8381011.836355884</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1449.865912701227</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>97.37986404129782</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>943213.9977653428</v>
+      </c>
+      <c r="E7">
         <v>3065906.553143415</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>183710.6513299294</v>
-      </c>
-      <c r="F7">
-        <v>943213.9977653428</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8170311.335938186</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1347.142609664215</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.48048031485342</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>821849.3262597373</v>
+      </c>
+      <c r="E7">
         <v>2934288.984874371</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>170694.7132749874</v>
-      </c>
-      <c r="F7">
-        <v>821849.3262597373</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7819564.66724581</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1057.513004652382</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>71.02758380124381</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>582314.1771253408</v>
+      </c>
+      <c r="E7">
         <v>2763284.13191288</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>133996.1172772217</v>
-      </c>
-      <c r="F7">
-        <v>582314.1771253408</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7363855.11953659</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>687.3700029083218</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.16702609731077</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>312373.190816247</v>
+      </c>
+      <c r="E7">
         <v>2568642.060406123</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>87095.77198327106</v>
-      </c>
-      <c r="F7">
-        <v>312373.190816247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6845154.925738557</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>527.789643882744</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.44885310666501</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>213419.2506322324</v>
+      </c>
+      <c r="E7">
         <v>2367245.196044834</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66875.54924458108</v>
-      </c>
-      <c r="F7">
-        <v>213419.2506322324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6308453.935218683</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.983550862398253E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.332246738179193E-15</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.391988376420876E-10</v>
+      </c>
+      <c r="E7">
         <v>0.9482541254359084</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.513331872175119E-12</v>
-      </c>
-      <c r="F7">
-        <v>5.391988376420876E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.526995293596199</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>488.2541525134724</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.79346219043003</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>207186.2907530205</v>
+      </c>
+      <c r="E7">
         <v>2175698.823551266</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61866.05781060018</v>
-      </c>
-      <c r="F7">
-        <v>207186.2907530205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5798003.446459503</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>443.9271960528297</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.8162537770949</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>206904.6811363258</v>
+      </c>
+      <c r="E7">
         <v>2009023.148588174</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56249.44597669179</v>
-      </c>
-      <c r="F7">
-        <v>206904.6811363258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5353830.692668331</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>383.5478532855882</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.76089104453542</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>210477.9777419542</v>
+      </c>
+      <c r="E7">
         <v>1879464.818957932</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48598.85685015871</v>
-      </c>
-      <c r="F7">
-        <v>210477.9777419542</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5008571.673551169</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>344.7439022175841</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.15463384091076</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>235357.693383041</v>
+      </c>
+      <c r="E7">
         <v>1795485.869458268</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43682.05795004775</v>
-      </c>
-      <c r="F7">
-        <v>235357.693383041</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4784776.802055883</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>396.1883111785768</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.60988408606825</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>311507.6010403794</v>
+      </c>
+      <c r="E7">
         <v>1761072.01413542</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50200.51306697604</v>
-      </c>
-      <c r="F7">
-        <v>311507.6010403794</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4693067.577595235</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>536.8765007140668</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.05916946422965</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>426520.8095787021</v>
+      </c>
+      <c r="E7">
         <v>1775544.483488877</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68026.9332259549</v>
-      </c>
-      <c r="F7">
-        <v>426520.8095787021</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4731635.152427655</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>734.7601589182924</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.34997350556382</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>566591.5302482966</v>
+      </c>
+      <c r="E7">
         <v>1833992.104761648</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93100.51790560158</v>
-      </c>
-      <c r="F7">
-        <v>566591.5302482966</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4887391.779176089</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>971.5020588425774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>65.25068116793929</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>731469.8244551901</v>
+      </c>
+      <c r="E7">
         <v>1928269.153529057</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>123097.7805842902</v>
-      </c>
-      <c r="F7">
-        <v>731469.8244551901</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5138629.978029025</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1219.983010039076</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.9398391324066</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>904359.150600571</v>
+      </c>
+      <c r="E7">
         <v>2048320.316975413</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>154582.4834023196</v>
-      </c>
-      <c r="F7">
-        <v>904359.150600571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5458553.421420567</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1411.300052462486</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>94.78959814582099</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1035294.305712216</v>
+      </c>
+      <c r="E7">
         <v>2183505.877513655</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>178824.0206136045</v>
-      </c>
-      <c r="F7">
-        <v>1035294.305712216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5818808.405900875</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.119802651183924E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.423759895024246E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.886705991888393E-08</v>
+      </c>
+      <c r="E7">
         <v>3.028706559926312</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.685974767241524E-10</v>
-      </c>
-      <c r="F7">
-        <v>4.886705991888393E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8.071177353538463</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1496.082844865276</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>100.4840121774216</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1089250.105429255</v>
+      </c>
+      <c r="E7">
         <v>2323658.833706469</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>189566.739562606</v>
-      </c>
-      <c r="F7">
-        <v>1089250.105429255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6192300.965735534</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1507.001846304069</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>101.2173840473729</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1088711.153127077</v>
+      </c>
+      <c r="E7">
         <v>2459767.71734529</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>190950.2722387111</v>
-      </c>
-      <c r="F7">
-        <v>1088711.153127077</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6555016.507008632</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1491.433539051632</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>100.1717427709525</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1065409.784132818</v>
+      </c>
+      <c r="E7">
         <v>2584337.742472893</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>188977.6319825366</v>
-      </c>
-      <c r="F7">
-        <v>1065409.784132818</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6886982.230939342</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1467.93443999588</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98.59343194158842</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1029940.42680389</v>
+      </c>
+      <c r="E7">
         <v>2691554.943797006</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>186000.0912628188</v>
-      </c>
-      <c r="F7">
-        <v>1029940.42680389</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7172704.545107014</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1441.879989144298</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>96.84349157857184</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>983785.0265093176</v>
+      </c>
+      <c r="E7">
         <v>2777353.287852983</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>182698.7651925547</v>
-      </c>
-      <c r="F7">
-        <v>983785.0265093176</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7401347.907484303</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1401.3747952342</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>94.12297084532483</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>918898.4084295556</v>
+      </c>
+      <c r="E7">
         <v>2839419.406893918</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>177566.4039926106</v>
-      </c>
-      <c r="F7">
-        <v>918898.4084295556</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7566747.441745357</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1312.111694212901</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.12763805957503</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>816546.5650149697</v>
+      </c>
+      <c r="E7">
         <v>2877127.125973118</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>166255.9908815112</v>
-      </c>
-      <c r="F7">
-        <v>816546.5650149697</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7667234.458979883</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1153.767145035484</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>77.49246791349621</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>672197.1944519132</v>
+      </c>
+      <c r="E7">
         <v>2891393.729732689</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>146192.3560245947</v>
-      </c>
-      <c r="F7">
-        <v>672197.1944519132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7705253.424138051</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>964.8970508432544</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>64.8070575367254</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>522209.0883906862</v>
+      </c>
+      <c r="E7">
         <v>2884472.563341368</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>122260.8684871333</v>
-      </c>
-      <c r="F7">
-        <v>522209.0883906862</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7686809.259828164</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>813.9441868228696</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>54.66834798698321</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>418157.5810223482</v>
+      </c>
+      <c r="E7">
         <v>2859712.198366684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103133.8245816478</v>
-      </c>
-      <c r="F7">
-        <v>418157.5810223482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7620825.549259033</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.091688011547124E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.332293918263912E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.109974345788459E-06</v>
+      </c>
+      <c r="E7">
         <v>8.980491910238406</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.38326388594616E-08</v>
-      </c>
-      <c r="F7">
-        <v>2.109974345788459E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23.93204541126465</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>714.8304670166475</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.01140097222429</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>366634.5303631343</v>
+      </c>
+      <c r="E7">
         <v>2821308.357168116</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90575.25219103994</v>
-      </c>
-      <c r="F7">
-        <v>366634.5303631343</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7518483.441419342</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>655.6871824427011</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.03905776426758</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>354139.6763851845</v>
+      </c>
+      <c r="E7">
         <v>2774057.516429987</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83081.28241377401</v>
-      </c>
-      <c r="F7">
-        <v>354139.6763851845</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7392565.030983922</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>612.1070400597281</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.1120089227318</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>361003.8218019035</v>
+      </c>
+      <c r="E7">
         <v>2723101.913435848</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77559.29843436526</v>
-      </c>
-      <c r="F7">
-        <v>361003.8218019035</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7256773.827450427</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>589.2398781809862</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.57614198824163</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>386876.435606559</v>
+      </c>
+      <c r="E7">
         <v>2673645.694249605</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74661.82966431612</v>
-      </c>
-      <c r="F7">
-        <v>386876.435606559</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7124978.320560069</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>621.0706573813636</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.71404793092729</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>446816.3960839079</v>
+      </c>
+      <c r="E7">
         <v>2630626.922577489</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78695.06689543759</v>
-      </c>
-      <c r="F7">
-        <v>446816.3960839079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7010337.919178473</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>724.7687033735691</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.67890001249362</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>544372.5321310279</v>
+      </c>
+      <c r="E7">
         <v>2598350.975657342</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91834.51338078632</v>
-      </c>
-      <c r="F7">
-        <v>544372.5321310279</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6924325.990755719</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>888.9842537104628</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>59.70839441275884</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>670091.701361293</v>
+      </c>
+      <c r="E7">
         <v>2580121.608208424</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>112642.055269048</v>
-      </c>
-      <c r="F7">
-        <v>670091.701361293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6875746.686418421</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1087.404007487119</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>73.03520517271375</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>810935.9025076129</v>
+      </c>
+      <c r="E7">
         <v>2577931.870902957</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>137783.5679314988</v>
-      </c>
-      <c r="F7">
-        <v>810935.9025076129</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6869911.271926991</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1291.925095002554</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>86.77181041417758</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>952743.0912278529</v>
+      </c>
+      <c r="E7">
         <v>2592283.653152323</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>163698.1727711731</v>
-      </c>
-      <c r="F7">
-        <v>952743.0912278529</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6908157.228602572</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1471.558068004828</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98.83681196711794</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1075410.17044991</v>
+      </c>
+      <c r="E7">
         <v>2622184.012841003</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>186459.2365229905</v>
-      </c>
-      <c r="F7">
-        <v>1075410.17044991</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6987838.472462593</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.206527071553825E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.153655503845187E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.079915501614836E-05</v>
+      </c>
+      <c r="E7">
         <v>23.31362496029297</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.062949350431375E-07</v>
-      </c>
-      <c r="F7">
-        <v>5.079915501614836E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62.12830397573535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1590.642579879819</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>106.8350919971696</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1153392.038663262</v>
+      </c>
+      <c r="E7">
         <v>2665325.049049262</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>201548.2823776532</v>
-      </c>
-      <c r="F7">
-        <v>1153392.038663262</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7102804.695687848</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1638.937007946044</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>110.0787746010867</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1178679.539771596</v>
+      </c>
+      <c r="E7">
         <v>2718410.185808571</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>207667.6074531169</v>
-      </c>
-      <c r="F7">
-        <v>1178679.539771596</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7244270.877750614</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1636.936172728609</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>109.9443890280926</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1164561.674712353</v>
+      </c>
+      <c r="E7">
         <v>2777560.811320832</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>207414.0841874281</v>
-      </c>
-      <c r="F7">
-        <v>1164561.674712353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7401900.935214419</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1610.960331673752</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>108.1997284714708</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1128062.505767366</v>
+      </c>
+      <c r="E7">
         <v>2838732.819963402</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>204122.7186637434</v>
-      </c>
-      <c r="F7">
-        <v>1128062.505767366</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7564917.761393311</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1574.925325626348</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>105.7794467344612</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1077862.151523498</v>
+      </c>
+      <c r="E7">
         <v>2898088.025688471</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>199556.7692379011</v>
-      </c>
-      <c r="F7">
-        <v>1077862.151523498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7723093.003128995</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1522.27108520578</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>102.2429384763977</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1010001.264116719</v>
+      </c>
+      <c r="E7">
         <v>2952288.769535406</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>192885.0179275173</v>
-      </c>
-      <c r="F7">
-        <v>1010001.264116719</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7867532.158136791</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1437.604758337552</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>96.55634682190228</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>917195.6755730553</v>
+      </c>
+      <c r="E7">
         <v>2998705.05223222</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>182157.0561771122</v>
-      </c>
-      <c r="F7">
-        <v>917195.6755730553</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7991226.561118859</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1311.409914894023</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.0805032355471</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>799024.3386799871</v>
+      </c>
+      <c r="E7">
         <v>3035535.99895837</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>166167.0693235716</v>
-      </c>
-      <c r="F7">
-        <v>799024.3386799871</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8089377.074297896</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1156.479677502954</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>77.67465444576506</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>671351.17049301</v>
+      </c>
+      <c r="E7">
         <v>3061853.29552192</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>146536.0575365672</v>
-      </c>
-      <c r="F7">
-        <v>671351.17049301</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8159509.840159256</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1007.482364975044</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>67.66728899949807</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>562954.2805230571</v>
+      </c>
+      <c r="E7">
         <v>3077576.462838838</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>127656.7990540264</v>
-      </c>
-      <c r="F7">
-        <v>562954.2805230571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8201410.390596632</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
